--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF379D77-EAAD-4CFC-83F6-26CEC3B6AC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF12674-38F3-42A8-BBED-3A2A79809960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>ADM3202ARN</t>
   </si>
   <si>
-    <t>SOIC-16</t>
-  </si>
-  <si>
     <t>1158ЕН5ВХ</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>AD8564AR</t>
+  </si>
+  <si>
+    <t>SOIC16</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36:K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -917,7 +917,7 @@
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -950,7 +950,7 @@
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -1119,7 +1119,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1809,7 +1809,7 @@
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>SOIC-16</v>
+        <v>SOIC16</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -1861,14 +1861,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>SOIC-16</v>
+        <v>SOIC16</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF12674-38F3-42A8-BBED-3A2A79809960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513D2AE-E574-4842-A5C2-E957D62CDAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="123">
   <si>
     <t>Part Number</t>
   </si>
@@ -325,13 +325,97 @@
   </si>
   <si>
     <t>SOIC16</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>АО "ПКК Миландр",г.Москва</t>
+  </si>
+  <si>
+    <t>АО "Протон"</t>
+  </si>
+  <si>
+    <t>АЕНВ.431420.461-01ТУ</t>
+  </si>
+  <si>
+    <t>ЗАО "Группа Кремний Эл"</t>
+  </si>
+  <si>
+    <t>ЗАО "Группа Кремний Эл",г.Брянск</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>M/A-COM Technology Solutions</t>
+  </si>
+  <si>
+    <t>АО "НЗПП с ОКБ",г.Новосибирск</t>
+  </si>
+  <si>
+    <t>АО "ВЗППС"</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Qorvo</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>АО "Завод "Метеор"</t>
+  </si>
+  <si>
+    <t>АЕЯР.431230.283ТУ</t>
+  </si>
+  <si>
+    <t>ОАО «ИНТЕГРАЛ», г. Минск</t>
+  </si>
+  <si>
+    <t>АЕЯР.431200.140-01ТУ</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>АО "НПП "Восток",г.Новосибирск</t>
+  </si>
+  <si>
+    <t>ПАО «МИКРОН», г. Зеленоград</t>
+  </si>
+  <si>
+    <t>АЕЯР.431280.910ТУ</t>
+  </si>
+  <si>
+    <t>АО «НИИЭТ», г. Воронеж</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АЕЯР.431200.182-09ТУ</t>
+  </si>
+  <si>
+    <t>бК0.347.000-06ТУ</t>
+  </si>
+  <si>
+    <t>АО «СВЕТЛАНА-ПОЛУПРОВОДНИКИ», г. Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>АЕЯР.431200.424-11ТУ</t>
+  </si>
+  <si>
+    <t>ОАО «ОКБ «ЭКСИТОН», г. Павловский Посад, Московская обл.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +435,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,14 +490,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,1187 +799,1512 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
     <col min="11" max="11" width="40.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="4" t="str">
         <f>A2&amp;" "&amp;J2</f>
         <v>1986ВЕ91Т АЕЯР.431290.711ТУ</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="L2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="str">
         <f>C3</f>
         <v>2М420А4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I3" t="str">
-        <f>B3</f>
+      <c r="I3" s="3" t="str">
+        <f>A3</f>
         <v xml:space="preserve">2М420А4 </v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K37" si="0">A3&amp;" "&amp;J3</f>
         <v>2М420А4  АЕЯР.432170.564ТУ</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="L3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I37" si="1">B4</f>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I37" si="1">A4</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2М420А1  АЕЯР.432170.564ТУ</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="L4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G37" si="2">C5</f>
         <v>КТ-93-1</v>
       </c>
-      <c r="I5" t="str">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>5321ЕН01Б5   АЕНВ.431420.461-01ТУ</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="J5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5321ЕН01Б5  АЕНВ.431420.461-01ТУ</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>КТ-93-1</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>5321ЕМ06А5</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5321EM06A5 </v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5321EM06A5  АЕНВ.431420.461-03ТУ</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="L6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>КТ-93-1</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>1158ЕН5ВХ</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">1158ЕН5.0ВХ </v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1158ЕН5.0ВХ  АЕЯР.431420.773ТУ</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Н02.8-1В</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>1309ЕС045</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">1309ЕС045 </v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1309ЕС045  АЕНВ.431420.301ТУ</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>КТ-93-1</v>
       </c>
-      <c r="I9" t="str">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1158ЕН3.3ВХ  АЕЯР.431420.773ТУ</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="L9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LQFP64</v>
       </c>
-      <c r="I10" t="str">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>K1986ВЕ92QI   ТСКЯ.431000.001ТУ</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>K1986ВЕ92QI  ТСКЯ.431000.001ТУ</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>KD-VB3M18</v>
       </c>
-      <c r="I11" t="str">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ГК385-П-15-ГР-3-Д-60М-К  ТСКЯ.433526.002ТУ</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="L11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>МК 5164.40-1НЗ</v>
       </c>
-      <c r="I12" t="str">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>К1508МТ015  АЕНВ.431230.569ТУ</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="L12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>PQFN-24</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>XX1002-QH</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">XX1002-QG </v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">XX1002-QG  </v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="L13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Н02.8-1В</v>
       </c>
-      <c r="I14" t="str">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН28У  АЕЯР.431230.882ТУ</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="L14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Н09.28-1В</v>
       </c>
-      <c r="I15" t="str">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН4У  АЕНВ.431160.326ТУ</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="L15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>МК 5133.48-4</v>
       </c>
-      <c r="I16" t="str">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">1923КН015 </v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1923КН015  АЕНВ.431160.326ТУ</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="L16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>401.14-5</v>
       </c>
-      <c r="I17" t="str">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1564ЛА3  бк0.347.479-01ТУ</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="L17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>401.14-5</v>
       </c>
-      <c r="I18" t="str">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">2ТС622А </v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2ТС622А  аА0.339.190ТУ</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+      <c r="L18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOIC-8</v>
       </c>
-      <c r="I19" t="str">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
-      <c r="K19" t="str">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">NCP3170ADR2G  </v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+      <c r="L19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>QFN-16(17)</v>
       </c>
-      <c r="I20" t="str">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">RFSA2113 </v>
       </c>
-      <c r="K20" t="str">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RFSA2113  </v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+      <c r="L20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOIC-8</v>
       </c>
-      <c r="I21" t="str">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
-      <c r="K21" t="str">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADT7310TRZ  </v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+      <c r="L21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="str">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Н04.16-1В</v>
       </c>
-      <c r="I22" t="str">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>544УД16У3  АЕЯР.431130.510ТУ</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+      <c r="L22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="str">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LFCSP-8</v>
       </c>
-      <c r="I23" t="str">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
-      <c r="K23" t="str">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8317ACPZ  </v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="L23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="str">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOT-23(RJ5)</v>
       </c>
-      <c r="I24" t="str">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
-      <c r="K24" t="str">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8031ARTZ  </v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="str">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>РК535</v>
       </c>
-      <c r="I25" t="str">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>РК535-7ДР-16000К-П12</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>РК535-7ДР-16000К-П12 КЖДГ.433513.017ТУ</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="str">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Н18.64-1В</v>
       </c>
-      <c r="I26" t="str">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1986ВЕ92У</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1986ВЕ92У ТСКЯ.431000.001ТУ</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="L26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="str">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>402.16-32</v>
       </c>
-      <c r="I27" t="str">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>5559ИН1Т</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">5559ИН1Т </v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="J27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5559ИН1Т АЕЯР.431230.283ТУ</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>402.16-32</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>5559ИН28У</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">5559ИН20Т </v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5559ИН20Т</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5559ИН20Т АЕЯР.431230.882ТУ</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>401.14-5</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1564ЛА3 </v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">530ЛА3 </v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>530ЛА3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>530ЛА3 АЕЯР.431200.140-01ТУ</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="str">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>4203.64-2</v>
       </c>
-      <c r="I30" t="str">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1887ВЕ7Т</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1887ВЕ7Т </v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="J30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="str">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>401.14-5</v>
       </c>
-      <c r="I31" t="str">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1554ЛП8</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1554ЛП8 </v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="J31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1554ЛП8  АЕЯР.431200.182-09ТУ</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>4203.64-2</v>
       </c>
-      <c r="I32" t="str">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>590КН6</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">590КН6 </v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="J32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>590КН6 бК0.347.000-06ТУ</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>401.14-5</v>
       </c>
-      <c r="I33" t="str">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1564ЛИ1</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1564ЛИ1 </v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="J33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1564ЛИ1 АЕЯР.431200.424-11ТУ</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="str">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOIC-8</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>5559ИН28У</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ADM3485ARZ</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3485ARZ </v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="L34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="str">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOIC16</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>5559ИН1Т</v>
-      </c>
-      <c r="K35" t="str">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ADM3202ARN</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3202ARN </v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="L35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LQFP64</v>
       </c>
-      <c r="I36" t="str">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>STM32F103RCT</v>
       </c>
-      <c r="K36" t="str">
+      <c r="J36" s="3"/>
+      <c r="K36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">STM32F103RCT </v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="L36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SOIC16</v>
       </c>
-      <c r="I37" t="str">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>AD8564AR</v>
       </c>
-      <c r="K37" t="str">
+      <c r="J37" s="3"/>
+      <c r="K37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8564AR </v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +2318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F33265A-39F8-4BBD-82F6-F91AC77AFD15}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1910,7 +2331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="str">
@@ -1922,7 +2343,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="str">
@@ -1934,7 +2355,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="str">
@@ -1946,7 +2367,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="str">
@@ -1958,7 +2379,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="str">
@@ -1970,7 +2391,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="str">
@@ -1982,7 +2403,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="str">
@@ -1994,7 +2415,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="str">
@@ -2006,7 +2427,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="str">
@@ -2018,7 +2439,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="str">
@@ -2030,7 +2451,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="str">
@@ -2039,7 +2460,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="str">
@@ -2051,7 +2472,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="str">
@@ -2063,7 +2484,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="str">
@@ -2075,7 +2496,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="str">
@@ -2087,7 +2508,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="str">
@@ -2099,7 +2520,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="str">
@@ -2108,7 +2529,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="str">
@@ -2117,7 +2538,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="str">
@@ -2126,7 +2547,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="str">
@@ -2138,7 +2559,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="str">
@@ -2147,7 +2568,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="str">

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513D2AE-E574-4842-A5C2-E957D62CDAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773D738-2891-4A98-8563-465551E2A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -499,7 +499,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,13 +868,13 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" t="str">
         <f>A2&amp;" "&amp;J2</f>
         <v>1986ВЕ91Т АЕЯР.431290.711ТУ</v>
       </c>
@@ -919,7 +918,7 @@
       <c r="J3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K37" si="0">A3&amp;" "&amp;J3</f>
         <v>2М420А4  АЕЯР.432170.564ТУ</v>
       </c>
@@ -958,7 +957,7 @@
       <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>2М420А1  АЕЯР.432170.564ТУ</v>
       </c>
@@ -1000,7 +999,7 @@
       <c r="J5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="4" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>5321ЕН01Б5  АЕНВ.431420.461-01ТУ</v>
       </c>
@@ -1041,7 +1040,7 @@
       <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>5321EM06A5  АЕНВ.431420.461-03ТУ</v>
       </c>
@@ -1082,7 +1081,7 @@
       <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>1158ЕН5.0ВХ  АЕЯР.431420.773ТУ</v>
       </c>
@@ -1123,7 +1122,7 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>1309ЕС045  АЕНВ.431420.301ТУ</v>
       </c>
@@ -1165,7 +1164,7 @@
       <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>1158ЕН3.3ВХ  АЕЯР.431420.773ТУ</v>
       </c>
@@ -1207,7 +1206,7 @@
       <c r="J10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="4" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>K1986ВЕ92QI  ТСКЯ.431000.001ТУ</v>
       </c>
@@ -1249,7 +1248,7 @@
       <c r="J11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>ГК385-П-15-ГР-3-Д-60М-К  ТСКЯ.433526.002ТУ</v>
       </c>
@@ -1291,7 +1290,7 @@
       <c r="J12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="4" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>К1508МТ015  АЕНВ.431230.569ТУ</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="4" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">XX1002-QG  </v>
       </c>
@@ -1372,7 +1371,7 @@
       <c r="J14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН28У  АЕЯР.431230.882ТУ</v>
       </c>
@@ -1414,7 +1413,7 @@
       <c r="J15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН4У  АЕНВ.431160.326ТУ</v>
       </c>
@@ -1456,7 +1455,7 @@
       <c r="J16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>1923КН015  АЕНВ.431160.326ТУ</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="J17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>1564ЛА3  бк0.347.479-01ТУ</v>
       </c>
@@ -1542,7 +1541,7 @@
       <c r="J18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>2ТС622А  аА0.339.190ТУ</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="4" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">NCP3170ADR2G  </v>
       </c>
@@ -1622,7 +1621,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="4" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RFSA2113  </v>
       </c>
@@ -1662,7 +1661,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="4" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADT7310TRZ  </v>
       </c>
@@ -1704,7 +1703,7 @@
       <c r="J22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>544УД16У3  АЕЯР.431130.510ТУ</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="4" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8317ACPZ  </v>
       </c>
@@ -1784,7 +1783,7 @@
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="4" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8031ARTZ  </v>
       </c>
@@ -1824,7 +1823,7 @@
       <c r="J25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>РК535-7ДР-16000К-П12 КЖДГ.433513.017ТУ</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="J26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>1986ВЕ92У ТСКЯ.431000.001ТУ</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="J27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН1Т АЕЯР.431230.283ТУ</v>
       </c>
@@ -1944,7 +1943,7 @@
       <c r="J28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>5559ИН20Т АЕЯР.431230.882ТУ</v>
       </c>
@@ -1984,7 +1983,7 @@
       <c r="J29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>530ЛА3 АЕЯР.431200.140-01ТУ</v>
       </c>
@@ -2021,14 +2020,14 @@
         <f t="shared" si="1"/>
         <v>1887ВЕ7Т</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="4" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>116</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2064,7 +2063,7 @@
       <c r="J31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K31" s="4" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>1554ЛП8  АЕЯР.431200.182-09ТУ</v>
       </c>
@@ -2104,14 +2103,14 @@
       <c r="J32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K32" s="4" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>590КН6 бК0.347.000-06ТУ</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2144,7 +2143,7 @@
       <c r="J33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="4" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>1564ЛИ1 АЕЯР.431200.424-11ТУ</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>ADM3485ARZ</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="4" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3485ARZ </v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>ADM3202ARN</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="4" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3202ARN </v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>STM32F103RCT</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="4" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">STM32F103RCT </v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>AD8564AR</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="4" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">AD8564AR </v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773D738-2891-4A98-8563-465551E2A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A25F9-447B-4160-951A-6EAD9A15E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="125">
   <si>
     <t>Part Number</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>ОАО «ОКБ «ЭКСИТОН», г. Павловский Посад, Московская обл.</t>
+  </si>
+  <si>
+    <t>1887BE7Тf</t>
+  </si>
+  <si>
+    <t>1887BE7Т</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,6 +2310,46 @@
       </c>
       <c r="M37" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" ref="G38" si="3">C38</f>
+        <v>4203.64-2</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="str">
+        <f t="shared" ref="I38" si="4">A38</f>
+        <v>1887BE7Т</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" t="str">
+        <f>K30</f>
+        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A25F9-447B-4160-951A-6EAD9A15E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01401D-C89F-4402-A63D-428A9B272DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>Part Number</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>PCB_LIB.PcbLib</t>
-  </si>
-  <si>
-    <t>Package</t>
   </si>
   <si>
     <t>4229.132-3</t>
@@ -415,6 +412,18 @@
   </si>
   <si>
     <t>1887BE7Т</t>
+  </si>
+  <si>
+    <t>ГК323-ТК-ДЖ1-10М-3,3К</t>
+  </si>
+  <si>
+    <t>ГК323-7552</t>
+  </si>
+  <si>
+    <t>КЖДГ.433531.003ТУ</t>
+  </si>
+  <si>
+    <t>АО «Завод «Метеор»</t>
   </si>
 </sst>
 </file>
@@ -789,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,16 +810,15 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -830,28 +838,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -859,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -871,27 +876,24 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="str">
-        <f>A2&amp;" "&amp;J2</f>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2&amp;" "&amp;I2</f>
         <v>1986ВЕ91Т АЕЯР.431290.711ТУ</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -901,7 +903,7 @@
         <v xml:space="preserve">2М420А4 </v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -910,32 +912,28 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f>C3</f>
-        <v>2М420А4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3" t="str">
+      <c r="G3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3" t="str">
         <f>A3</f>
         <v xml:space="preserve">2М420А4 </v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K37" si="0">A3&amp;" "&amp;J3</f>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="str">
+        <f>A3&amp;" "&amp;I3</f>
         <v>2М420А4  АЕЯР.432170.564ТУ</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -952,29 +950,28 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I37" si="1">A4</f>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4:H37" si="0">A4</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="0"/>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="str">
+        <f>A4&amp;" "&amp;I4</f>
         <v>2М420А1  АЕЯР.432170.564ТУ</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -984,7 +981,7 @@
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -993,39 +990,35 @@
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G37" si="2">C5</f>
-        <v>КТ-93-1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="str">
+        <f>A5&amp;" "&amp;I5</f>
         <v>5321ЕН01Б5  АЕНВ.431420.461-01ТУ</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -1034,39 +1027,35 @@
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>КТ-93-1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
+      <c r="I6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="str">
+        <f>A6&amp;" "&amp;I6</f>
         <v>5321EM06A5  АЕНВ.431420.461-03ТУ</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -1075,39 +1064,35 @@
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>КТ-93-1</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="str">
+        <f>A7&amp;" "&amp;I7</f>
         <v>1158ЕН5.0ВХ  АЕЯР.431420.773ТУ</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -1116,30 +1101,26 @@
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Н02.8-1В</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="str">
+        <f>A8&amp;" "&amp;I8</f>
         <v>1309ЕС045  АЕНВ.431420.301ТУ</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1149,7 +1130,7 @@
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -1158,30 +1139,26 @@
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>КТ-93-1</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="str">
+        <f>A9&amp;" "&amp;I9</f>
         <v>1158ЕН3.3ВХ  АЕЯР.431420.773ТУ</v>
       </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1191,7 +1168,7 @@
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -1200,30 +1177,26 @@
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>LQFP64</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="str">
+        <f>A10&amp;" "&amp;I10</f>
         <v>K1986ВЕ92QI  ТСКЯ.431000.001ТУ</v>
       </c>
+      <c r="K10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1233,7 +1206,7 @@
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -1242,30 +1215,26 @@
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>KD-VB3M18</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="str">
+        <f>A11&amp;" "&amp;I11</f>
         <v>ГК385-П-15-ГР-3-Д-60М-К  ТСКЯ.433526.002ТУ</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="L11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1275,7 +1244,7 @@
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -1284,39 +1253,35 @@
       <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>МК 5164.40-1НЗ</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="str">
+        <f>A12&amp;" "&amp;I12</f>
         <v>К1508МТ015  АЕНВ.431230.569ТУ</v>
       </c>
+      <c r="K12" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1325,28 +1290,24 @@
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>PQFN-24</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">XX1002-QG </v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
+      <c r="I13" s="3"/>
+      <c r="J13" t="str">
+        <f>A13&amp;" "&amp;I13</f>
         <v xml:space="preserve">XX1002-QG  </v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1356,7 +1317,7 @@
         <v xml:space="preserve">5559ИН28У </v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -1365,30 +1326,26 @@
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Н02.8-1В</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="str">
+        <f>A14&amp;" "&amp;I14</f>
         <v>5559ИН28У  АЕЯР.431230.882ТУ</v>
       </c>
+      <c r="K14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1398,7 +1355,7 @@
         <v xml:space="preserve">5559ИН4У </v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -1407,30 +1364,26 @@
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Н09.28-1В</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
+      <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="str">
+        <f>A15&amp;" "&amp;I15</f>
         <v>5559ИН4У  АЕНВ.431160.326ТУ</v>
       </c>
+      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1440,7 +1393,7 @@
         <v xml:space="preserve">1923КН015 </v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
@@ -1449,30 +1402,26 @@
       <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>МК 5133.48-4</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1923КН015 </v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
+      <c r="I16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="str">
+        <f>A16&amp;" "&amp;I16</f>
         <v>1923КН015  АЕНВ.431160.326ТУ</v>
       </c>
+      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1482,41 +1431,37 @@
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>401.14-5</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="str">
+        <f>A17&amp;" "&amp;I17</f>
         <v>1564ЛА3  бк0.347.479-01ТУ</v>
       </c>
+      <c r="K17" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="L17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1526,7 +1471,7 @@
         <v xml:space="preserve">2ТС622А </v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -1535,30 +1480,26 @@
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>401.14-5</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">2ТС622А </v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="str">
+        <f>A18&amp;" "&amp;I18</f>
         <v>2ТС622А  аА0.339.190ТУ</v>
       </c>
+      <c r="K18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="L18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1568,7 +1509,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -1577,28 +1518,24 @@
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOIC-8</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
+      <c r="I19" s="3"/>
+      <c r="J19" t="str">
+        <f>A19&amp;" "&amp;I19</f>
         <v xml:space="preserve">NCP3170ADR2G  </v>
       </c>
+      <c r="K19" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1608,7 +1545,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -1617,28 +1554,24 @@
       <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>QFN-16(17)</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">RFSA2113 </v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" s="3"/>
+      <c r="J20" t="str">
+        <f>A20&amp;" "&amp;I20</f>
         <v xml:space="preserve">RFSA2113  </v>
       </c>
+      <c r="K20" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1648,7 +1581,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -1657,28 +1590,24 @@
       <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOIC-8</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
+      <c r="I21" s="3"/>
+      <c r="J21" t="str">
+        <f>A21&amp;" "&amp;I21</f>
         <v xml:space="preserve">ADT7310TRZ  </v>
       </c>
+      <c r="K21" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1688,7 +1617,7 @@
         <v xml:space="preserve">544УД16У3 </v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -1697,30 +1626,26 @@
       <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Н04.16-1В</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
+      <c r="I22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="str">
+        <f>A22&amp;" "&amp;I22</f>
         <v>544УД16У3  АЕЯР.431130.510ТУ</v>
       </c>
+      <c r="K22" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1730,7 +1655,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -1739,28 +1664,24 @@
       <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>LFCSP-8</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
+      <c r="I23" s="3"/>
+      <c r="J23" t="str">
+        <f>A23&amp;" "&amp;I23</f>
         <v xml:space="preserve">AD8317ACPZ  </v>
       </c>
+      <c r="K23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1770,7 +1691,7 @@
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -1779,36 +1700,32 @@
       <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOT-23(RJ5)</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
+      <c r="I24" s="3"/>
+      <c r="J24" t="str">
+        <f>A24&amp;" "&amp;I24</f>
         <v xml:space="preserve">AD8031ARTZ  </v>
       </c>
+      <c r="K24" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -1817,38 +1734,34 @@
       <c r="F25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>РК535</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>РК535-7ДР-16000К-П12</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
+      <c r="I25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="str">
+        <f>A25&amp;" "&amp;I25</f>
         <v>РК535-7ДР-16000К-П12 КЖДГ.433513.017ТУ</v>
       </c>
+      <c r="K25" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -1857,38 +1770,34 @@
       <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Н18.64-1В</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>1986ВЕ92У</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
+      <c r="I26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="str">
+        <f>A26&amp;" "&amp;I26</f>
         <v>1986ВЕ92У ТСКЯ.431000.001ТУ</v>
       </c>
+      <c r="K26" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -1897,38 +1806,34 @@
       <c r="F27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>402.16-32</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>5559ИН1Т</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
+      <c r="I27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="str">
+        <f>A27&amp;" "&amp;I27</f>
         <v>5559ИН1Т АЕЯР.431230.283ТУ</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -1937,38 +1842,34 @@
       <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>402.16-32</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>5559ИН20Т</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
+      <c r="I28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="str">
+        <f>A28&amp;" "&amp;I28</f>
         <v>5559ИН20Т АЕЯР.431230.882ТУ</v>
       </c>
+      <c r="K28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -1977,38 +1878,34 @@
       <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>401.14-5</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>530ЛА3</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
+      <c r="I29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="str">
+        <f>A29&amp;" "&amp;I29</f>
         <v>530ЛА3 АЕЯР.431200.140-01ТУ</v>
       </c>
+      <c r="K29" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="L29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -2017,38 +1914,34 @@
       <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>4203.64-2</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>1887ВЕ7Т</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" t="str">
+        <f>A30&amp;" "&amp;I30</f>
+        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -2057,38 +1950,34 @@
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>401.14-5</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>1554ЛП8</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
+      <c r="I31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" t="str">
+        <f>A31&amp;" "&amp;I31</f>
         <v>1554ЛП8  АЕЯР.431200.182-09ТУ</v>
       </c>
+      <c r="K31" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="L31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -2097,38 +1986,34 @@
       <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>4203.64-2</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>590КН6</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" t="str">
+        <f>A32&amp;" "&amp;I32</f>
+        <v>590КН6 бК0.347.000-06ТУ</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v>590КН6 бК0.347.000-06ТУ</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -2137,38 +2022,34 @@
       <c r="F33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>401.14-5</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>1564ЛИ1</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
+      <c r="I33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" t="str">
+        <f>A33&amp;" "&amp;I33</f>
         <v>1564ЛИ1 АЕЯР.431200.424-11ТУ</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -2177,36 +2058,32 @@
       <c r="F34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOIC-8</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>ADM3485ARZ</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" t="str">
-        <f t="shared" si="0"/>
+      <c r="I34" s="3"/>
+      <c r="J34" t="str">
+        <f>A34&amp;" "&amp;I34</f>
         <v xml:space="preserve">ADM3485ARZ </v>
       </c>
+      <c r="K34" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
@@ -2215,36 +2092,32 @@
       <c r="F35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOIC16</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>ADM3202ARN</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" t="str">
-        <f t="shared" si="0"/>
+      <c r="I35" s="3"/>
+      <c r="J35" t="str">
+        <f>A35&amp;" "&amp;I35</f>
         <v xml:space="preserve">ADM3202ARN </v>
       </c>
+      <c r="K35" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -2253,36 +2126,32 @@
       <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>LQFP64</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>STM32F103RCT</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" t="str">
-        <f t="shared" si="0"/>
+      <c r="I36" s="3"/>
+      <c r="J36" t="str">
+        <f>A36&amp;" "&amp;I36</f>
         <v xml:space="preserve">STM32F103RCT </v>
       </c>
+      <c r="K36" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -2291,36 +2160,32 @@
       <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOIC16</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>AD8564AR</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" t="str">
-        <f t="shared" si="0"/>
+      <c r="I37" s="3"/>
+      <c r="J37" t="str">
+        <f>A37&amp;" "&amp;I37</f>
         <v xml:space="preserve">AD8564AR </v>
       </c>
+      <c r="K37" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -2329,27 +2194,56 @@
       <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="3" t="str">
-        <f t="shared" ref="G38" si="3">C38</f>
-        <v>4203.64-2</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="str">
-        <f t="shared" ref="I38" si="4">A38</f>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="str">
+        <f t="shared" ref="H38" si="1">A38</f>
         <v>1887BE7Т</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" t="str">
+        <f>J30</f>
+        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K38" t="str">
-        <f>K30</f>
-        <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>117</v>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" t="str">
+        <f>A39&amp;" "&amp;I39</f>
+        <v>ГК323-ТК-ДЖ1-10М-3,3К КЖДГ.433531.003ТУ</v>
+      </c>
+      <c r="K39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2377,127 +2271,127 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="str">
         <f>LEFT(A1,SEARCH(" ",A1))</f>
         <v xml:space="preserve">2М420А4 </v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C22" si="0">LEFT(A2,SEARCH(" ",A2))</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="str">
         <f>LEFT(A3,SEARCH( " ",A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2506,67 +2400,67 @@
     </row>
     <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1923КН015 </v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1923КН015 </v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2ТС622А </v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2575,7 +2469,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2584,7 +2478,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2593,19 +2487,19 @@
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2614,7 +2508,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01401D-C89F-4402-A63D-428A9B272DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69734951-2C8C-4E9A-9E24-48F995C2226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="131">
   <si>
     <t>Part Number</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>АО «Завод «Метеор»</t>
+  </si>
+  <si>
+    <t>402.16-18</t>
+  </si>
+  <si>
+    <t>К561КП2</t>
+  </si>
+  <si>
+    <t>DIP16</t>
   </si>
 </sst>
 </file>
@@ -798,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="J2" t="str">
-        <f>A2&amp;" "&amp;I2</f>
+        <f t="shared" ref="J2:J37" si="0">A2&amp;" "&amp;I2</f>
         <v>1986ВЕ91Т АЕЯР.431290.711ТУ</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -923,7 +932,7 @@
         <v>54</v>
       </c>
       <c r="J3" t="str">
-        <f>A3&amp;" "&amp;I3</f>
+        <f t="shared" si="0"/>
         <v>2М420А4  АЕЯР.432170.564ТУ</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -954,14 +963,14 @@
         <v>66</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H37" si="0">A4</f>
+        <f t="shared" ref="H4:H37" si="1">A4</f>
         <v xml:space="preserve">2М420А1 </v>
       </c>
       <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="J4" t="str">
-        <f>A4&amp;" "&amp;I4</f>
+        <f t="shared" si="0"/>
         <v>2М420А1  АЕЯР.432170.564ТУ</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -992,14 +1001,14 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5321ЕН01Б5 </v>
       </c>
       <c r="I5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="J5" t="str">
-        <f>A5&amp;" "&amp;I5</f>
+        <f t="shared" si="0"/>
         <v>5321ЕН01Б5  АЕНВ.431420.461-01ТУ</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1029,14 +1038,14 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5321EM06A5 </v>
       </c>
       <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J6" t="str">
-        <f>A6&amp;" "&amp;I6</f>
+        <f t="shared" si="0"/>
         <v>5321EM06A5  АЕНВ.431420.461-03ТУ</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1066,14 +1075,14 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
       </c>
       <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="J7" t="str">
-        <f>A7&amp;" "&amp;I7</f>
+        <f t="shared" si="0"/>
         <v>1158ЕН5.0ВХ  АЕЯР.431420.773ТУ</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1103,14 +1112,14 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1309ЕС045 </v>
       </c>
       <c r="I8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J8" t="str">
-        <f>A8&amp;" "&amp;I8</f>
+        <f t="shared" si="0"/>
         <v>1309ЕС045  АЕНВ.431420.301ТУ</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1141,14 +1150,14 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
       </c>
       <c r="I9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="J9" t="str">
-        <f>A9&amp;" "&amp;I9</f>
+        <f t="shared" si="0"/>
         <v>1158ЕН3.3ВХ  АЕЯР.431420.773ТУ</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1179,14 +1188,14 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">K1986ВЕ92QI </v>
       </c>
       <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J10" t="str">
-        <f>A10&amp;" "&amp;I10</f>
+        <f t="shared" si="0"/>
         <v>K1986ВЕ92QI  ТСКЯ.431000.001ТУ</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1217,14 +1226,14 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
       </c>
       <c r="I11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="str">
-        <f>A11&amp;" "&amp;I11</f>
+        <f t="shared" si="0"/>
         <v>ГК385-П-15-ГР-3-Д-60М-К  ТСКЯ.433526.002ТУ</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1255,14 +1264,14 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">К1508МТ015 </v>
       </c>
       <c r="I12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J12" t="str">
-        <f>A12&amp;" "&amp;I12</f>
+        <f t="shared" si="0"/>
         <v>К1508МТ015  АЕНВ.431230.569ТУ</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1292,12 +1301,12 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">XX1002-QG </v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" t="str">
-        <f>A13&amp;" "&amp;I13</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">XX1002-QG  </v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1328,14 +1337,14 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5559ИН28У </v>
       </c>
       <c r="I14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J14" t="str">
-        <f>A14&amp;" "&amp;I14</f>
+        <f t="shared" si="0"/>
         <v>5559ИН28У  АЕЯР.431230.882ТУ</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -1366,14 +1375,14 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5559ИН4У </v>
       </c>
       <c r="I15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="J15" t="str">
-        <f>A15&amp;" "&amp;I15</f>
+        <f t="shared" si="0"/>
         <v>5559ИН4У  АЕНВ.431160.326ТУ</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1923КН015 </v>
       </c>
       <c r="I16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="J16" t="str">
-        <f>A16&amp;" "&amp;I16</f>
+        <f t="shared" si="0"/>
         <v>1923КН015  АЕНВ.431160.326ТУ</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1444,14 +1453,14 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1564ЛА3 </v>
       </c>
       <c r="I17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J17" t="str">
-        <f>A17&amp;" "&amp;I17</f>
+        <f t="shared" si="0"/>
         <v>1564ЛА3  бк0.347.479-01ТУ</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1482,14 +1491,14 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">2ТС622А </v>
       </c>
       <c r="I18" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J18" t="str">
-        <f>A18&amp;" "&amp;I18</f>
+        <f t="shared" si="0"/>
         <v>2ТС622А  аА0.339.190ТУ</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1520,12 +1529,12 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" t="str">
-        <f>A19&amp;" "&amp;I19</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">NCP3170ADR2G  </v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1556,12 +1565,12 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">RFSA2113 </v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" t="str">
-        <f>A20&amp;" "&amp;I20</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">RFSA2113  </v>
       </c>
       <c r="K20" s="3" t="s">
@@ -1592,12 +1601,12 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" t="str">
-        <f>A21&amp;" "&amp;I21</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ADT7310TRZ  </v>
       </c>
       <c r="K21" s="3" t="s">
@@ -1628,14 +1637,14 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">544УД16У3 </v>
       </c>
       <c r="I22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J22" t="str">
-        <f>A22&amp;" "&amp;I22</f>
+        <f t="shared" si="0"/>
         <v>544УД16У3  АЕЯР.431130.510ТУ</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -1666,12 +1675,12 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" t="str">
-        <f>A23&amp;" "&amp;I23</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">AD8317ACPZ  </v>
       </c>
       <c r="K23" s="3" t="s">
@@ -1702,12 +1711,12 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">AD8031ARTZ </v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" t="str">
-        <f>A24&amp;" "&amp;I24</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">AD8031ARTZ  </v>
       </c>
       <c r="K24" s="3" t="s">
@@ -1736,14 +1745,14 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>РК535-7ДР-16000К-П12</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J25" t="str">
-        <f>A25&amp;" "&amp;I25</f>
+        <f t="shared" si="0"/>
         <v>РК535-7ДР-16000К-П12 КЖДГ.433513.017ТУ</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -1772,14 +1781,14 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1986ВЕ92У</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J26" t="str">
-        <f>A26&amp;" "&amp;I26</f>
+        <f t="shared" si="0"/>
         <v>1986ВЕ92У ТСКЯ.431000.001ТУ</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -1808,14 +1817,14 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5559ИН1Т</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J27" t="str">
-        <f>A27&amp;" "&amp;I27</f>
+        <f t="shared" si="0"/>
         <v>5559ИН1Т АЕЯР.431230.283ТУ</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -1844,14 +1853,14 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5559ИН20Т</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J28" t="str">
-        <f>A28&amp;" "&amp;I28</f>
+        <f t="shared" si="0"/>
         <v>5559ИН20Т АЕЯР.431230.882ТУ</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -1880,14 +1889,14 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>530ЛА3</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>111</v>
       </c>
       <c r="J29" t="str">
-        <f>A29&amp;" "&amp;I29</f>
+        <f t="shared" si="0"/>
         <v>530ЛА3 АЕЯР.431200.140-01ТУ</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -1916,14 +1925,14 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1887ВЕ7Т</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>115</v>
       </c>
       <c r="J30" t="str">
-        <f>A30&amp;" "&amp;I30</f>
+        <f t="shared" si="0"/>
         <v>1887ВЕ7Т АЕЯР.431280.910ТУ</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -1952,14 +1961,14 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1554ЛП8</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>117</v>
       </c>
       <c r="J31" t="str">
-        <f>A31&amp;" "&amp;I31</f>
+        <f t="shared" si="0"/>
         <v>1554ЛП8  АЕЯР.431200.182-09ТУ</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -1977,7 +1986,7 @@
         <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -1988,14 +1997,14 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>590КН6</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>118</v>
       </c>
       <c r="J32" t="str">
-        <f>A32&amp;" "&amp;I32</f>
+        <f t="shared" si="0"/>
         <v>590КН6 бК0.347.000-06ТУ</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -2024,14 +2033,14 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1564ЛИ1</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J33" t="str">
-        <f>A33&amp;" "&amp;I33</f>
+        <f t="shared" si="0"/>
         <v>1564ЛИ1 АЕЯР.431200.424-11ТУ</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -2060,12 +2069,12 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADM3485ARZ</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" t="str">
-        <f>A34&amp;" "&amp;I34</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3485ARZ </v>
       </c>
       <c r="K34" s="3" t="s">
@@ -2094,12 +2103,12 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADM3202ARN</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" t="str">
-        <f>A35&amp;" "&amp;I35</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ADM3202ARN </v>
       </c>
       <c r="K35" s="3" t="s">
@@ -2128,12 +2137,12 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STM32F103RCT</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" t="str">
-        <f>A36&amp;" "&amp;I36</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">STM32F103RCT </v>
       </c>
       <c r="K36" s="3" t="s">
@@ -2162,12 +2171,12 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AD8564AR</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" t="str">
-        <f>A37&amp;" "&amp;I37</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">AD8564AR </v>
       </c>
       <c r="K37" s="3" t="s">
@@ -2196,7 +2205,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="str">
-        <f t="shared" ref="H38" si="1">A38</f>
+        <f t="shared" ref="H38" si="2">A38</f>
         <v>1887BE7Т</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -2245,6 +2254,32 @@
       <c r="L39" s="3" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" t="str">
+        <f>A40&amp;" "&amp;I40</f>
+        <v xml:space="preserve">К561КП2 </v>
+      </c>
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69734951-2C8C-4E9A-9E24-48F995C2226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FA057-A642-4454-9204-DEAD75E7E385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
   <si>
     <t>Part Number</t>
   </si>
@@ -433,13 +433,22 @@
   </si>
   <si>
     <t>DIP16</t>
+  </si>
+  <si>
+    <t>5019ЧТ1Т</t>
+  </si>
+  <si>
+    <t>4112.8-1.01</t>
+  </si>
+  <si>
+    <t>АЕЯР.431320.885-01ТУ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +473,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -527,6 +542,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -807,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,6 +2296,39 @@
         <v xml:space="preserve">К561КП2 </v>
       </c>
       <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" t="str">
+        <f>A41&amp;" "&amp;I41</f>
+        <v>5019ЧТ1Т АЕЯР.431320.885-01ТУ</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FA057-A642-4454-9204-DEAD75E7E385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806A17E-0132-4E72-A69B-257EDB90EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806A17E-0132-4E72-A69B-257EDB90EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA2C32-AD8C-4794-A710-D134B2DC7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="141">
   <si>
     <t>Part Number</t>
   </si>
@@ -442,6 +442,27 @@
   </si>
   <si>
     <t>АЕЯР.431320.885-01ТУ</t>
+  </si>
+  <si>
+    <t>DS1620</t>
+  </si>
+  <si>
+    <t>ADM7150ACPZ-3.3</t>
+  </si>
+  <si>
+    <t>OP284FS</t>
+  </si>
+  <si>
+    <t>ATmega128</t>
+  </si>
+  <si>
+    <t>ADM7150</t>
+  </si>
+  <si>
+    <t>LFCSP_WD-8</t>
+  </si>
+  <si>
+    <t>OP284</t>
   </si>
 </sst>
 </file>
@@ -823,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,6 +2349,114 @@
       </c>
       <c r="L41" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42:J45" si="3">A42&amp;" "&amp;I42</f>
+        <v xml:space="preserve">DS1620 </v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">ADM7150ACPZ-3.3 </v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">OP284FS </v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">ATmega128 </v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA2C32-AD8C-4794-A710-D134B2DC7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AA324-FCC6-443F-9A66-5C85C9D7813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="144">
   <si>
     <t>Part Number</t>
   </si>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t>OP284</t>
+  </si>
+  <si>
+    <t>1019ЧТ4У</t>
+  </si>
+  <si>
+    <t>5221.6-1</t>
+  </si>
+  <si>
+    <t>АЕЯР.431320.839 ТУ</t>
   </si>
 </sst>
 </file>
@@ -844,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2380,7 @@
         <v>134</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42:J45" si="3">A42&amp;" "&amp;I42</f>
+        <f t="shared" ref="J42:J46" si="3">A42&amp;" "&amp;I42</f>
         <v xml:space="preserve">DS1620 </v>
       </c>
       <c r="K42" s="3" t="s">
@@ -2457,6 +2466,39 @@
       </c>
       <c r="K45" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>1019ЧТ4У АЕЯР.431320.839 ТУ</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AA324-FCC6-443F-9A66-5C85C9D7813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C05891-D985-4709-B33A-7F7F110B5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="157">
   <si>
     <t>Part Number</t>
   </si>
@@ -472,6 +472,45 @@
   </si>
   <si>
     <t>АЕЯР.431320.839 ТУ</t>
+  </si>
+  <si>
+    <t>КТ-1-9</t>
+  </si>
+  <si>
+    <t>К1019ЕМ1</t>
+  </si>
+  <si>
+    <t>бКО.348.829ТУ</t>
+  </si>
+  <si>
+    <t>КФ1158ЕН3,3Г</t>
+  </si>
+  <si>
+    <t>ЮФ3.438.057-02ТУГК</t>
+  </si>
+  <si>
+    <t>FXO-HC736R-10.00000</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSE-7U16000MAB143ZA3 </t>
+  </si>
+  <si>
+    <t>KSE</t>
+  </si>
+  <si>
+    <t>ТО-263</t>
+  </si>
+  <si>
+    <t>FXO-HC736R-9</t>
+  </si>
+  <si>
+    <t>SMD Seam 7U</t>
+  </si>
+  <si>
+    <t>XLH736010.000000X</t>
   </si>
 </sst>
 </file>
@@ -508,7 +547,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -853,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1951,7 @@
         <v>62</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,7 +2418,7 @@
         <v>134</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42:J46" si="3">A42&amp;" "&amp;I42</f>
+        <f t="shared" ref="J42:J50" si="3">A42&amp;" "&amp;I42</f>
         <v xml:space="preserve">DS1620 </v>
       </c>
       <c r="K42" s="3" t="s">
@@ -2499,6 +2537,129 @@
       </c>
       <c r="L46" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>К1019ЕМ1 бКО.348.829ТУ</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>КФ1158ЕН3,3Г ЮФ3.438.057-02ТУГК</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">XLH736010.000000X </v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">KSE-7U16000MAB143ZA3  </v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C05891-D985-4709-B33A-7F7F110B5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D2F28-B4C2-4E00-800A-615B900F15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="165">
   <si>
     <t>Part Number</t>
   </si>
@@ -511,6 +511,30 @@
   </si>
   <si>
     <t>XLH736010.000000X</t>
+  </si>
+  <si>
+    <t>КФ1158ЕН3,3В</t>
+  </si>
+  <si>
+    <t>КФ1158ЕН5В</t>
+  </si>
+  <si>
+    <t>КФ1158ЕН9В</t>
+  </si>
+  <si>
+    <t>L7808</t>
+  </si>
+  <si>
+    <t>L7808ABD2T-TR</t>
+  </si>
+  <si>
+    <t>PVG612SPBF</t>
+  </si>
+  <si>
+    <t>PVG612</t>
+  </si>
+  <si>
+    <t>DIP_6SMD</t>
   </si>
 </sst>
 </file>
@@ -891,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +2595,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>147</v>
@@ -2586,14 +2610,14 @@
         <v>9</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>148</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>КФ1158ЕН3,3Г ЮФ3.438.057-02ТУГК</v>
+        <v>КФ1158ЕН3,3В ЮФ3.438.057-02ТУГК</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>148</v>
@@ -2660,6 +2684,129 @@
       </c>
       <c r="L50" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51:J54" si="4">A51&amp;" "&amp;I51</f>
+        <v>КФ1158ЕН5В ЮФ3.438.057-02ТУГК</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="4"/>
+        <v>КФ1158ЕН9В ЮФ3.438.057-02ТУГК</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">L7808ABD2T-TR </v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PVG612SPBF </v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D2F28-B4C2-4E00-800A-615B900F15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE200976-1722-4A03-A076-DF78150D9A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Part Number</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>DIP_6SMD</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +936,7 @@
     <col min="10" max="10" width="40.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="12" width="36.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1538,7 +1542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1578,7 +1582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1616,7 +1620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1652,7 +1656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1688,7 +1692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1724,7 +1728,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1762,7 +1766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1798,7 +1802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1834,7 +1838,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1869,8 +1873,11 @@
       <c r="L25" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2014,7 +2021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2050,7 +2057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2086,7 +2093,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE200976-1722-4A03-A076-DF78150D9A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF745C-1B9D-477E-B5BE-F38DFDD492B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="170">
   <si>
     <t>Part Number</t>
   </si>
@@ -538,6 +538,18 @@
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>CDCV304</t>
+  </si>
+  <si>
+    <t>TSSOP-8</t>
+  </si>
+  <si>
+    <t>CDCV304PWR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
 </sst>
 </file>
@@ -918,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2728,7 @@
         <v>148</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ref="J51:J54" si="4">A51&amp;" "&amp;I51</f>
+        <f t="shared" ref="J51:J55" si="4">A51&amp;" "&amp;I51</f>
         <v>КФ1158ЕН5В ЮФ3.438.057-02ТУГК</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -2814,6 +2826,36 @@
       </c>
       <c r="K54" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CDCV304PWR </v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF745C-1B9D-477E-B5BE-F38DFDD492B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580FBE4-DCCC-4606-97D8-26B7A4D3189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,11 +932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -951,7 +951,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -1066,7 +1066,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -1104,7 +1104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -1142,7 +1142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
@@ -1179,7 +1179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
@@ -1216,7 +1216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
@@ -1253,7 +1253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1291,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1329,7 +1329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1367,7 +1367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1405,7 +1405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
@@ -1440,7 +1440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1478,7 +1478,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1516,7 +1516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1554,7 +1554,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1594,7 +1594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1632,7 +1632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1668,7 +1668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1704,7 +1704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1740,7 +1740,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1778,7 +1778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1814,7 +1814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1850,7 +1850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -2873,7 +2873,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2881,7 +2881,7 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="47.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="94.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="47.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="47.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580FBE4-DCCC-4606-97D8-26B7A4D3189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5F156-E513-449E-A0CF-B53D74773498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="171">
   <si>
     <t>Part Number</t>
   </si>
@@ -550,13 +550,16 @@
   </si>
   <si>
     <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Коммент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,13 +933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -951,7 +954,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -988,8 +991,14 @@
       <c r="L1" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -1066,7 +1075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -1104,7 +1113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -1142,7 +1151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
@@ -1179,7 +1188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
@@ -1216,7 +1225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
@@ -1253,7 +1262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1291,7 +1300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1329,7 +1338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1367,7 +1376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1405,7 +1414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
@@ -1440,7 +1449,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1478,7 +1487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1516,7 +1525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1554,7 +1563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1594,7 +1603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1632,7 +1641,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1668,7 +1677,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1704,7 +1713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1740,7 +1749,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1778,7 +1787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1814,7 +1823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1850,7 +1859,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1885,11 +1894,8 @@
       <c r="L25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2408,7 +2414,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -2873,7 +2879,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2881,7 +2887,7 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25">
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25">
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5">
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25">
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25">
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5F156-E513-449E-A0CF-B53D74773498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3804A79-9AA9-4D42-9D89-3899BEF24B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
   <si>
     <t>Part Number</t>
   </si>
@@ -553,13 +553,16 @@
   </si>
   <si>
     <t>Коммент</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,11 +938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -954,7 +957,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -1075,7 +1078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -1113,7 +1116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -1151,7 +1154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
@@ -1188,7 +1191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
@@ -1225,7 +1228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
@@ -1262,7 +1265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1300,7 +1303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1338,7 +1341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1376,7 +1379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1414,7 +1417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
@@ -1449,7 +1452,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1487,7 +1490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1525,7 +1528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1563,7 +1566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1603,7 +1606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1641,7 +1644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1677,7 +1680,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1713,7 +1716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1749,7 +1752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1787,7 +1790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1823,7 +1826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1859,7 +1862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2414,7 +2417,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -2833,8 +2836,11 @@
       <c r="K54" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -2879,7 +2885,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2887,7 +2893,7 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="47.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="94.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="47.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="47.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3804A79-9AA9-4D42-9D89-3899BEF24B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA77306-AC0D-4138-8947-97BF78A2F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
   <si>
     <t>Part Number</t>
   </si>
@@ -556,18 +556,38 @@
   </si>
   <si>
     <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>1158ЕН9.0ВХ</t>
+  </si>
+  <si>
+    <t>1244ЕН8Т</t>
+  </si>
+  <si>
+    <t>АЕЯР.431420.243 ТУ</t>
+  </si>
+  <si>
+    <t>4116.4-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,20 +662,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -936,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -957,7 +978,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1022,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -1078,7 +1099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -1116,7 +1137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -1154,7 +1175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
@@ -1191,7 +1212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
@@ -1228,7 +1249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
@@ -1265,7 +1286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1303,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1341,7 +1362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1379,7 +1400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1417,7 +1438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
@@ -1452,7 +1473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1490,7 +1511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1528,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1566,7 +1587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1606,7 +1627,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1644,7 +1665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1680,7 +1701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1716,7 +1737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1752,7 +1773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1790,7 +1811,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1826,7 +1847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1862,7 +1883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1934,7 +1955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -2006,7 +2027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2042,7 +2063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2078,7 +2099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2114,7 +2135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2150,7 +2171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2254,7 +2275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2288,7 +2309,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2358,7 +2379,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2391,7 +2412,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2417,7 +2438,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2531,7 +2552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2558,7 +2579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2621,7 +2642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -2654,7 +2675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -2684,7 +2705,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2714,7 +2735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>148</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ref="J51:J55" si="4">A51&amp;" "&amp;I51</f>
+        <f t="shared" ref="J51:J56" si="4">A51&amp;" "&amp;I51</f>
         <v>КФ1158ЕН5В ЮФ3.438.057-02ТУГК</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -2747,7 +2768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2780,7 +2801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
@@ -2810,7 +2831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -2840,7 +2861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -2870,8 +2891,77 @@
         <v>169</v>
       </c>
     </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="str">
+        <f t="shared" ref="H56" si="5">A56</f>
+        <v>1158ЕН9.0ВХ</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="4"/>
+        <v>1158ЕН9.0ВХ АЕЯР.431420.773ТУ</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57" si="6">A57&amp;" "&amp;I57</f>
+        <v>1244ЕН8Т АЕЯР.431420.243 ТУ</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2885,7 +2975,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2893,7 +2983,7 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2905,7 +2995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2917,7 +3007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +3019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +3031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2953,7 +3043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25">
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2977,7 +3067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25">
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2989,7 +3079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5">
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3001,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3022,7 +3112,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25">
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3046,7 +3136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25">
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3058,7 +3148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3070,7 +3160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3082,7 +3172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3091,7 +3181,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3100,7 +3190,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3109,7 +3199,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3121,7 +3211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3130,7 +3220,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA77306-AC0D-4138-8947-97BF78A2F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D71C5-2047-469C-BE1C-FFF9DA66B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="179">
   <si>
     <t>Part Number</t>
   </si>
@@ -568,13 +568,22 @@
   </si>
   <si>
     <t>4116.4-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIA7905F-RTF/P </t>
+  </si>
+  <si>
+    <t>KIA7905F</t>
+  </si>
+  <si>
+    <t>Korea Electronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,13 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -978,7 +987,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="str">
         <f>LEFT(Лист2!A1,SEARCH(" ",Лист2!A1))</f>
         <v xml:space="preserve">2М420А4 </v>
@@ -1099,7 +1108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="str">
         <f>LEFT(Лист2!A2,SEARCH(" ",Лист2!A2))</f>
         <v xml:space="preserve">2М420А1 </v>
@@ -1137,7 +1146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="str">
         <f>LEFT(Лист2!A3,SEARCH(" ",Лист2!A3))</f>
         <v xml:space="preserve">5321ЕН01Б5 </v>
@@ -1175,7 +1184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="str">
         <f>LEFT(Лист2!A4,SEARCH(" ",Лист2!A4))</f>
         <v xml:space="preserve">5321EM06A5 </v>
@@ -1212,7 +1221,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="str">
         <f>LEFT(Лист2!A5,SEARCH(" ",Лист2!A5))</f>
         <v xml:space="preserve">1158ЕН5.0ВХ </v>
@@ -1249,7 +1258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="str">
         <f>LEFT(Лист2!A6,SEARCH(" ",Лист2!A6))</f>
         <v xml:space="preserve">1309ЕС045 </v>
@@ -1286,7 +1295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="str">
         <f>LEFT(Лист2!A7,SEARCH(" ",Лист2!A7))</f>
         <v xml:space="preserve">1158ЕН3.3ВХ </v>
@@ -1324,7 +1333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="str">
         <f>LEFT(Лист2!A8,SEARCH(" ",Лист2!A8))</f>
         <v xml:space="preserve">K1986ВЕ92QI </v>
@@ -1362,7 +1371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="str">
         <f>LEFT(Лист2!A9,SEARCH(" ",Лист2!A9))</f>
         <v xml:space="preserve">ГК385-П-15-ГР-3-Д-60М-К </v>
@@ -1400,7 +1409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="str">
         <f>LEFT(Лист2!A10,SEARCH(" ",Лист2!A10))</f>
         <v xml:space="preserve">К1508МТ015 </v>
@@ -1438,7 +1447,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="str">
         <f>LEFT(Лист2!A11,SEARCH(" ",Лист2!A11))</f>
         <v xml:space="preserve">XX1002-QG </v>
@@ -1473,7 +1482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="str">
         <f>LEFT(Лист2!A12,SEARCH(" ",Лист2!A12))</f>
         <v xml:space="preserve">5559ИН28У </v>
@@ -1511,7 +1520,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="str">
         <f>LEFT(Лист2!A13,SEARCH(" ",Лист2!A13))</f>
         <v xml:space="preserve">5559ИН4У </v>
@@ -1549,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="str">
         <f>LEFT(Лист2!A14,SEARCH(" ",Лист2!A14))</f>
         <v xml:space="preserve">1923КН015 </v>
@@ -1587,7 +1596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="str">
         <f>LEFT(Лист2!A15,SEARCH(" ",Лист2!A15))</f>
         <v xml:space="preserve">1564ЛА3 </v>
@@ -1627,7 +1636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="str">
         <f>LEFT(Лист2!A16,SEARCH(" ",Лист2!A16))</f>
         <v xml:space="preserve">2ТС622А </v>
@@ -1665,7 +1674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="str">
         <f>LEFT(Лист2!A17,SEARCH(" ",Лист2!A17))</f>
         <v xml:space="preserve">NCP3170ADR2G </v>
@@ -1701,7 +1710,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="str">
         <f>LEFT(Лист2!A18,SEARCH(" ",Лист2!A18))</f>
         <v xml:space="preserve">RFSA2113 </v>
@@ -1737,7 +1746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="str">
         <f>LEFT(Лист2!A19,SEARCH(" ",Лист2!A19))</f>
         <v xml:space="preserve">ADT7310TRZ </v>
@@ -1773,7 +1782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="str">
         <f>LEFT(Лист2!A20,SEARCH(" ",Лист2!A20))</f>
         <v xml:space="preserve">544УД16У3 </v>
@@ -1811,7 +1820,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="str">
         <f>LEFT(Лист2!A21,SEARCH(" ",Лист2!A21))</f>
         <v xml:space="preserve">AD8317ACPZ </v>
@@ -1847,7 +1856,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="str">
         <f>LEFT(Лист2!A22,SEARCH(" ",Лист2!A22))</f>
         <v xml:space="preserve">AD8031ARTZ </v>
@@ -1883,7 +1892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2438,7 +2447,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>156</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
@@ -2831,7 +2840,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="3" t="s">
         <v>173</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>174</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57" si="6">A57&amp;" "&amp;I57</f>
+        <f t="shared" ref="J57:J58" si="6">A57&amp;" "&amp;I57</f>
         <v>1244ЕН8Т АЕЯР.431420.243 ТУ</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -2958,6 +2967,36 @@
       </c>
       <c r="L57" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">KIA7905F-RTF/P  </v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3014,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2983,7 +3022,7 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2995,7 +3034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3019,7 +3058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31.5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="47.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3055,7 +3094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3067,7 +3106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="94.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3091,7 +3130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3103,7 +3142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3112,7 +3151,7 @@
         <v xml:space="preserve">XX1002-QG </v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="47.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -3136,7 +3175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="47.25">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3148,7 +3187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3160,7 +3199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3172,7 +3211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3220,7 @@
         <v xml:space="preserve">NCP3170ADR2G </v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3190,7 +3229,7 @@
         <v xml:space="preserve">RFSA2113 </v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3199,7 +3238,7 @@
         <v xml:space="preserve">ADT7310TRZ </v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3211,7 +3250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3259,7 @@
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D71C5-2047-469C-BE1C-FFF9DA66B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4CA8EA-E0C9-4465-A4E7-E4A5FBFF1BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="182">
   <si>
     <t>Part Number</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>Korea Electronics</t>
+  </si>
+  <si>
+    <t>LQFP64-0.8</t>
+  </si>
+  <si>
+    <t>QFN64</t>
+  </si>
+  <si>
+    <t>ATmega128-MU</t>
   </si>
 </sst>
 </file>
@@ -966,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2569,7 +2578,7 @@
         <v>122</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2959,7 +2968,7 @@
         <v>174</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57:J58" si="6">A57&amp;" "&amp;I57</f>
+        <f t="shared" ref="J57:J59" si="6">A57&amp;" "&amp;I57</f>
         <v>1244ЕН8Т АЕЯР.431420.243 ТУ</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -2997,6 +3006,33 @@
       </c>
       <c r="L58" s="3" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">ATmega128-MU </v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4CA8EA-E0C9-4465-A4E7-E4A5FBFF1BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985AB434-737C-430A-B8B4-3B2E2C545667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="182">
   <si>
     <t>Part Number</t>
   </si>
@@ -975,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2710,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
@@ -2968,7 +2968,7 @@
         <v>174</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57:J59" si="6">A57&amp;" "&amp;I57</f>
+        <f t="shared" ref="J57:J60" si="6">A57&amp;" "&amp;I57</f>
         <v>1244ЕН8Т АЕЯР.431420.243 ТУ</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -3032,6 +3032,33 @@
         <v xml:space="preserve">ATmega128-MU </v>
       </c>
       <c r="K59" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">FXO-HC736R-10.00000 </v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>101</v>
       </c>
     </row>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985AB434-737C-430A-B8B4-3B2E2C545667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F84E9FF-09BA-423C-B50A-F3D5B7F4A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="185">
   <si>
     <t>Part Number</t>
   </si>
@@ -586,6 +586,15 @@
   </si>
   <si>
     <t>ATmega128-MU</t>
+  </si>
+  <si>
+    <t>1НТ251</t>
+  </si>
+  <si>
+    <t>Транзисторная сборка</t>
+  </si>
+  <si>
+    <t>И93.456.000ТУ</t>
   </si>
 </sst>
 </file>
@@ -975,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,7 +996,7 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="40.28515625" customWidth="1"/>
@@ -2968,7 +2977,7 @@
         <v>174</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57:J60" si="6">A57&amp;" "&amp;I57</f>
+        <f t="shared" ref="J57:J61" si="6">A57&amp;" "&amp;I57</f>
         <v>1244ЕН8Т АЕЯР.431420.243 ТУ</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -3060,6 +3069,39 @@
       </c>
       <c r="K60" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="6"/>
+        <v>1НТ251 И93.456.000ТУ</v>
+      </c>
+      <c r="K61" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/ICGOST.xlsx
+++ b/ICGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F84E9FF-09BA-423C-B50A-F3D5B7F4A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7377C8F-A2A8-4839-8DE9-BE461BE3D1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
